--- a/results/mp/deberta/corona/confidence/126/stop-words-topk-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-topk-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,6 +40,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
@@ -49,42 +52,51 @@
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
@@ -103,96 +115,117 @@
     <t>safe</t>
   </si>
   <si>
-    <t>confidence</t>
+    <t>safety</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>safety</t>
+    <t>like</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>like</t>
+    <t>share</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
+    <t>staff</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
-    <t>staff</t>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>local</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>local</t>
+    <t>news</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>delivery</t>
   </si>
   <si>
     <t>shopping</t>
   </si>
   <si>
+    <t>home</t>
+  </si>
+  <si>
     <t>store</t>
   </si>
   <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>social</t>
+    <t>us</t>
   </si>
   <si>
     <t>san</t>
   </si>
   <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>us</t>
+    <t>consumer</t>
   </si>
   <si>
     <t>supermarket</t>
   </si>
   <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
     <t>toilet</t>
   </si>
   <si>
@@ -200,6 +233,12 @@
   </si>
   <si>
     <t>corona</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>food</t>
   </si>
 </sst>
 </file>
@@ -557,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -565,10 +604,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -626,13 +665,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.4486301369863014</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C3">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -644,28 +683,28 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K3">
-        <v>0.9777777777777777</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="N3">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -676,13 +715,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.1085271317829457</v>
+        <v>0.4486301369863014</v>
       </c>
       <c r="C4">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c r="D4">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -694,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>460</v>
+        <v>161</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K4">
         <v>0.9615384615384616</v>
@@ -722,43 +761,67 @@
       </c>
     </row>
     <row r="5" spans="1:17">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0.1124031007751938</v>
+      </c>
+      <c r="C5">
+        <v>58</v>
+      </c>
+      <c r="D5">
+        <v>58</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>458</v>
+      </c>
       <c r="J5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K5">
-        <v>0.9354838709677419</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L5">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N5">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="J6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K6">
-        <v>0.9152542372881356</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L6">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -770,73 +833,73 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="J7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K7">
-        <v>0.8727272727272727</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L7">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="N7">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K8">
-        <v>0.8717948717948718</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L8">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="M8">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="N8">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K9">
-        <v>0.8611111111111112</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L9">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="M9">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -848,73 +911,73 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K10">
-        <v>0.84251968503937</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L10">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="M10">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="N10">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K11">
-        <v>0.8125</v>
+        <v>0.84375</v>
       </c>
       <c r="L11">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="M11">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="N11">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L12">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="M12">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -926,160 +989,160 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L13">
         <v>21</v>
       </c>
-      <c r="K13">
-        <v>0.7388535031847133</v>
-      </c>
-      <c r="L13">
-        <v>116</v>
-      </c>
       <c r="M13">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="N13">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K14">
-        <v>0.7307692307692307</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N14">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K15">
-        <v>0.7017543859649122</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
+        <v>120</v>
+      </c>
+      <c r="M15">
+        <v>120</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>40</v>
-      </c>
-      <c r="M15">
-        <v>41</v>
-      </c>
-      <c r="N15">
-        <v>0.98</v>
-      </c>
-      <c r="O15">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P15" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q15">
-        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K16">
-        <v>0.6633663366336634</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="M16">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="N16">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K17">
-        <v>0.6536796536796536</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L17">
-        <v>151</v>
+        <v>47</v>
       </c>
       <c r="M17">
-        <v>159</v>
+        <v>47</v>
       </c>
       <c r="N17">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K18">
-        <v>0.6521739130434783</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M18">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N18">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>16</v>
@@ -1087,94 +1150,94 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K19">
-        <v>0.6263736263736264</v>
+        <v>0.6886792452830188</v>
       </c>
       <c r="L19">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="M19">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="N19">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K20">
-        <v>0.624113475177305</v>
+        <v>0.6736401673640168</v>
       </c>
       <c r="L20">
-        <v>88</v>
+        <v>161</v>
       </c>
       <c r="M20">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c r="N20">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K21">
-        <v>0.6176470588235294</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L21">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N21">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K22">
-        <v>0.6170212765957447</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1186,21 +1249,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K23">
-        <v>0.5882352941176471</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="L23">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="M23">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1212,99 +1275,99 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K24">
-        <v>0.546875</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L24">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N24">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K25">
-        <v>0.524390243902439</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L25">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="M25">
-        <v>184</v>
+        <v>27</v>
       </c>
       <c r="N25">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>156</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K26">
-        <v>0.4634146341463415</v>
+        <v>0.5705882352941176</v>
       </c>
       <c r="L26">
-        <v>133</v>
+        <v>194</v>
       </c>
       <c r="M26">
-        <v>141</v>
+        <v>194</v>
       </c>
       <c r="N26">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K27">
-        <v>0.449438202247191</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L27">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M27">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1316,431 +1379,431 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K28">
-        <v>0.4264705882352941</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L28">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M28">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N28">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K29">
-        <v>0.418848167539267</v>
+        <v>0.4779661016949153</v>
       </c>
       <c r="L29">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="M29">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="N29">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>222</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K30">
-        <v>0.2336448598130841</v>
+        <v>0.46</v>
       </c>
       <c r="L30">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="M30">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="N30">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>164</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K31">
-        <v>0.2222222222222222</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="L31">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="M31">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="N31">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>322</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K32">
-        <v>0.2</v>
+        <v>0.4177545691906005</v>
       </c>
       <c r="L32">
-        <v>19</v>
+        <v>160</v>
       </c>
       <c r="M32">
-        <v>21</v>
+        <v>160</v>
       </c>
       <c r="N32">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>76</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K33">
-        <v>0.1708860759493671</v>
+        <v>0.296875</v>
       </c>
       <c r="L33">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M33">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="N33">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>131</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K34">
-        <v>0.1518987341772152</v>
+        <v>0.2602739726027397</v>
       </c>
       <c r="L34">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N34">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>134</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K35">
-        <v>0.1481481481481481</v>
+        <v>0.2511627906976744</v>
       </c>
       <c r="L35">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="M35">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="N35">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>138</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K36">
-        <v>0.1400966183574879</v>
+        <v>0.2371134020618557</v>
       </c>
       <c r="L36">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="M36">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="N36">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>356</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K37">
-        <v>0.1087443946188341</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="L37">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M37">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="N37">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>795</v>
+        <v>323</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K38">
-        <v>0.09765258215962441</v>
+        <v>0.2075471698113208</v>
       </c>
       <c r="L38">
-        <v>208</v>
+        <v>33</v>
       </c>
       <c r="M38">
-        <v>221</v>
+        <v>33</v>
       </c>
       <c r="N38">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>1922</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K39">
-        <v>0.09554551323434474</v>
+        <v>0.196319018404908</v>
       </c>
       <c r="L39">
-        <v>296</v>
+        <v>32</v>
       </c>
       <c r="M39">
-        <v>305</v>
+        <v>32</v>
       </c>
       <c r="N39">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>2802</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K40">
-        <v>0.09389671361502347</v>
+        <v>0.1886792452830189</v>
       </c>
       <c r="L40">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M40">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N40">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>193</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K41">
-        <v>0.09343715239154617</v>
+        <v>0.1729323308270677</v>
       </c>
       <c r="L41">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="M41">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="N41">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>815</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K42">
-        <v>0.09322033898305085</v>
+        <v>0.1716417910447761</v>
       </c>
       <c r="L42">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M42">
         <v>23</v>
       </c>
       <c r="N42">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>214</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K43">
-        <v>0.09259259259259259</v>
+        <v>0.1652173913043478</v>
       </c>
       <c r="L43">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M43">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="N43">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>294</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K44">
-        <v>0.09130434782608696</v>
+        <v>0.1468531468531468</v>
       </c>
       <c r="L44">
         <v>21</v>
@@ -1758,21 +1821,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>209</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K45">
-        <v>0.09053497942386832</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L45">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="M45">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1784,47 +1847,47 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>442</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K46">
-        <v>0.08045977011494253</v>
+        <v>0.1392405063291139</v>
       </c>
       <c r="L46">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="M46">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N46">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>320</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K47">
-        <v>0.0749063670411985</v>
+        <v>0.1386861313868613</v>
       </c>
       <c r="L47">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M47">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1836,163 +1899,475 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>247</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K48">
-        <v>0.07300115874855156</v>
+        <v>0.1322115384615385</v>
       </c>
       <c r="L48">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="M48">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="N48">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>800</v>
+        <v>361</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K49">
-        <v>0.07264296754250386</v>
+        <v>0.1302325581395349</v>
       </c>
       <c r="L49">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="M49">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="N49">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>600</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K50">
-        <v>0.06514657980456026</v>
+        <v>0.121923937360179</v>
       </c>
       <c r="L50">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="M50">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="N50">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>287</v>
+        <v>785</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K51">
-        <v>0.05486725663716814</v>
+        <v>0.1173913043478261</v>
       </c>
       <c r="L51">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M51">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N51">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>534</v>
+        <v>203</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K52">
-        <v>0.04749568221070812</v>
+        <v>0.1070336391437309</v>
       </c>
       <c r="L52">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="M52">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="N52">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>1103</v>
+        <v>292</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K53">
-        <v>0.04346466541588493</v>
+        <v>0.1003266448903406</v>
       </c>
       <c r="L53">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="M53">
-        <v>142</v>
+        <v>215</v>
       </c>
       <c r="N53">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>3059</v>
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K54">
+        <v>0.1002865329512894</v>
+      </c>
+      <c r="L54">
+        <v>35</v>
+      </c>
+      <c r="M54">
+        <v>35</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K55">
+        <v>0.09988901220865705</v>
+      </c>
+      <c r="L55">
+        <v>90</v>
+      </c>
+      <c r="M55">
+        <v>90</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K56">
+        <v>0.09108464757000322</v>
+      </c>
+      <c r="L56">
+        <v>283</v>
+      </c>
+      <c r="M56">
+        <v>283</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K57">
+        <v>0.0898876404494382</v>
+      </c>
+      <c r="L57">
+        <v>24</v>
+      </c>
+      <c r="M57">
+        <v>24</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K58">
+        <v>0.08847736625514403</v>
+      </c>
+      <c r="L58">
+        <v>43</v>
+      </c>
+      <c r="M58">
+        <v>43</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K59">
+        <v>0.08615384615384615</v>
+      </c>
+      <c r="L59">
+        <v>56</v>
+      </c>
+      <c r="M59">
+        <v>56</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K60">
+        <v>0.07727797001153403</v>
+      </c>
+      <c r="L60">
+        <v>67</v>
+      </c>
+      <c r="M60">
+        <v>67</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K61">
+        <v>0.07583774250440917</v>
+      </c>
+      <c r="L61">
+        <v>43</v>
+      </c>
+      <c r="M61">
+        <v>43</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K62">
+        <v>0.05857019810508183</v>
+      </c>
+      <c r="L62">
+        <v>68</v>
+      </c>
+      <c r="M62">
+        <v>68</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K63">
+        <v>0.0499843798812871</v>
+      </c>
+      <c r="L63">
+        <v>160</v>
+      </c>
+      <c r="M63">
+        <v>160</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K64">
+        <v>0.03492647058823529</v>
+      </c>
+      <c r="L64">
+        <v>19</v>
+      </c>
+      <c r="M64">
+        <v>20</v>
+      </c>
+      <c r="N64">
+        <v>0.95</v>
+      </c>
+      <c r="O64">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K65">
+        <v>0.0237603305785124</v>
+      </c>
+      <c r="L65">
+        <v>23</v>
+      </c>
+      <c r="M65">
+        <v>23</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>945</v>
       </c>
     </row>
   </sheetData>
